--- a/vulnerability_report.xlsx
+++ b/vulnerability_report.xlsx
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gegenereerd op: 2026-01-03 20:40:24</t>
+          <t>Gegenereerd op: 2026-01-16 14:40:00</t>
         </is>
       </c>
     </row>
